--- a/tutorial/tutorial_steps_full_complete.xlsx
+++ b/tutorial/tutorial_steps_full_complete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\Documents\My Lab\4_My Factory\CodingNDeveloping\웹코딩\Ltryi_Frontend_moved\LTsRYI\tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571CD7BD-4939-4EB5-9A73-83CF57B19942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E364A61-5CF1-4C3E-B201-AA3B7B979A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="113">
   <si>
     <t>step</t>
   </si>
@@ -284,10 +284,6 @@
 다음 만남은 '당신에 대한 심층분석 보고서'으로 시작해보게 되겠네요.</t>
   </si>
   <si>
-    <t>그럼 튜토리얼은 여기까지에요.
-방문해주셔서 감사합니다, 내일도 또 와주세요!</t>
-  </si>
-  <si>
     <t>#kiosk</t>
   </si>
   <si>
@@ -378,6 +374,17 @@
   </si>
   <si>
     <t>click:.go-back-from-grades</t>
+  </si>
+  <si>
+    <t>jigi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문해주셔서 감사합니다, 내일도 또 와주세요!</t>
+  </si>
+  <si>
+    <t>그럼 튜토리얼은 여기까지에요. 즐거운 시간이셨는지 모르겠네요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -462,15 +469,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -775,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -813,7 +823,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -833,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -853,7 +863,7 @@
         <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -873,7 +883,7 @@
         <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -893,7 +903,7 @@
         <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -913,7 +923,7 @@
         <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -930,10 +940,10 @@
         <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -950,10 +960,10 @@
         <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -970,10 +980,10 @@
         <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -990,10 +1000,10 @@
         <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -1010,10 +1020,10 @@
         <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -1030,10 +1040,10 @@
         <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -1053,7 +1063,7 @@
         <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -1070,10 +1080,10 @@
         <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -1090,10 +1100,10 @@
         <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -1113,7 +1123,7 @@
         <v>64</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -1130,7 +1140,7 @@
         <v>65</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -1147,10 +1157,10 @@
         <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -1167,10 +1177,10 @@
         <v>67</v>
       </c>
       <c r="F19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -1187,7 +1197,7 @@
         <v>68</v>
       </c>
       <c r="G20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -1207,7 +1217,7 @@
         <v>69</v>
       </c>
       <c r="G21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -1215,13 +1225,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1229,13 +1239,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -1243,13 +1253,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -1257,13 +1267,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -1271,13 +1281,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -1285,13 +1295,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -1299,13 +1309,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -1313,13 +1323,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -1327,13 +1337,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -1341,16 +1351,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -1358,7 +1368,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
         <v>34</v>
@@ -1367,7 +1377,7 @@
         <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -1375,16 +1385,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" t="s">
         <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -1392,7 +1402,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" t="s">
         <v>36</v>
@@ -1401,7 +1411,7 @@
         <v>71</v>
       </c>
       <c r="G34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -1418,7 +1428,7 @@
         <v>72</v>
       </c>
       <c r="G35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -1435,10 +1445,10 @@
         <v>38</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -1455,7 +1465,7 @@
         <v>73</v>
       </c>
       <c r="G37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
@@ -1472,7 +1482,7 @@
         <v>74</v>
       </c>
       <c r="G38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
@@ -1492,7 +1502,7 @@
         <v>75</v>
       </c>
       <c r="G39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
@@ -1512,7 +1522,7 @@
         <v>76</v>
       </c>
       <c r="G40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
@@ -1520,7 +1530,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D41" t="s">
         <v>43</v>
@@ -1529,7 +1539,7 @@
         <v>77</v>
       </c>
       <c r="G41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
@@ -1549,10 +1559,10 @@
         <v>78</v>
       </c>
       <c r="F42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
@@ -1572,10 +1582,10 @@
         <v>79</v>
       </c>
       <c r="F43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
@@ -1595,7 +1605,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
@@ -1615,10 +1625,10 @@
         <v>81</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
@@ -1638,10 +1648,10 @@
         <v>82</v>
       </c>
       <c r="F46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
@@ -1657,8 +1667,25 @@
       <c r="D47" t="s">
         <v>49</v>
       </c>
-      <c r="E47" t="s">
-        <v>83</v>
+      <c r="E47" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/tutorial/tutorial_steps_full_complete.xlsx
+++ b/tutorial/tutorial_steps_full_complete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\Documents\My Lab\4_My Factory\CodingNDeveloping\웹코딩\Ltryi_Frontend_moved\LTsRYI\tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E364A61-5CF1-4C3E-B201-AA3B7B979A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345C9C87-A3DF-4662-8EC3-178DE51EC93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="137">
   <si>
     <t>step</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>highlight</t>
-  </si>
-  <si>
-    <t>event</t>
   </si>
   <si>
     <t>quiz</t>
@@ -176,17 +173,6 @@
 LTRYI를 찾아주셔서 감사합니다.</t>
   </si>
   <si>
-    <t>이 카페는 여러분의 영어 학습을 돕기위한 '보조선생님'이에요.
-숙제 체크와 관리, 시험 제작을 전부 편하게 맡겨보세요.</t>
-  </si>
-  <si>
-    <t>오늘은 차근차근 사용법을 알려드릴게요. 따라오실까요!</t>
-  </si>
-  <si>
-    <t>(student room 전경) 여기는 카페 홀입니다.
-로그인을 하시고 나면 제일 처음 보이는 공간이에요.</t>
-  </si>
-  <si>
     <t>그럼 우선 주문을 위해, 키오스크로 가볼까요?</t>
   </si>
   <si>
@@ -207,9 +193,6 @@
   </si>
   <si>
     <t>담기가 끝나시면 주문하기 버튼을 눌러주세요.</t>
-  </si>
-  <si>
-    <t>(kiosk_screen.js 따라 룸으로 자동복귀됨) 주문 성공!</t>
   </si>
   <si>
     <t>하단의 '영수증’ 아이콘을 통해 언제든지 주문 내역을 확인할 수 있습니다.</t>
@@ -239,14 +222,7 @@
 '뒤로가기'버튼을 눌러, 카페 홀로 돌아가봅시다.</t>
   </si>
   <si>
-    <t>또, '상담' 메뉴를 통해 저에게 메세지를 남겨주실 수 있습니다. 상담 세션 끝에 받을 수 있는 심층 분석 보고서도 기대해주세요.</t>
-  </si>
-  <si>
     <t>그럼, 전송이 완료된 것 같으니 다시 카페 홀로 나가볼까요!</t>
-  </si>
-  <si>
-    <t>(room.html 열리고 tutorial_report=done) 전송이 끝나면 '오늘의 숙제점수'를 받으실 수 있습니다.
-눌러서 좀 더 자세히 확인해볼까요?</t>
   </si>
   <si>
     <t>(칠판 부분 조명) 칠판에서는 오늘의 점수와, 누적 추이를 확인할 수 있어요.
@@ -262,128 +238,265 @@
     <t>아이고, 경보기가 잘못 작동한 모양이네요..</t>
   </si>
   <si>
+    <t>그렇다면 확인질문!</t>
+  </si>
+  <si>
+    <t>아참참, 작성해주신 Prologue Question은 LTRYI 회원 등록 시 '평가서'로 받아보실 수 있습니다. 카페지기에게 받아주세요.
+다음 만남은 '당신에 대한 심층분석 보고서'으로 시작해보게 되겠네요.</t>
+  </si>
+  <si>
+    <t>#kiosk</t>
+  </si>
+  <si>
+    <t>#receipt_icon</t>
+  </si>
+  <si>
+    <t>#submissionChart</t>
+  </si>
+  <si>
+    <t>#calendarTable</t>
+  </si>
+  <si>
+    <t>next</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#popup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click:#kiosk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.cafe-table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tooltip_xy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">반납함을 터치하면 완료한 숙제를 제출할 수 있습니다. </t>
+  </si>
+  <si>
+    <t>반납함입니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">완료된 숙제들이 대기하고 있습니다. '파일 선택'을 눌러서, 저장해놓은Prologue Question과 Level Test를 봉투에 넣어주세요. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">버튼을 누르면 완성한 숙제가 한꺼번에 전송됩니다! </t>
+  </si>
+  <si>
+    <t>이렇게 숙제 전송까지 완료되었어요!</t>
+  </si>
+  <si>
+    <t>전송된 숙제는 일꾼들이 수동으로 수집한 후 체크됩니다. 시간이 좀 걸릴거에요.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">자, 그럼 이제 숙제가 도착하는 동안 카페를 좀 더 둘러볼까요! '뒤로가기' 버튼을 눌러, 카페 홀로 다시 돌아가봅시다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">이번엔 저에요! 카페지기를 눌러서 커스텀 주문을 해봅시다. </t>
+  </si>
+  <si>
+    <t>얼굴로 보네요, 반가워요. 이곳에서는 관리 업무를 좀 더 세밀하게 도와드리고 있어요.</t>
+  </si>
+  <si>
+    <t>highlight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#popup-container</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫번째 메뉴에서는 당신의 현재 진척도를 체크하고, 추천 숙제를 받아보세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번째 메뉴에서는 당신의 시험지와 채점 결과를 받아보실 수 있습니다. 요청은 키오스크로 주문 가능해요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jigi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문해주셔서 감사합니다, 내일도 또 와주세요!</t>
+  </si>
+  <si>
     <t>오늘 분의 숙제가 제출되지 않는 경우, 이렇게 알림을 통해 연락이 가게됩니다.
 단계별로 더 강력한 연락이 가게되니 꼭 숙제는 그날 제출해주세요!</t>
-  </si>
-  <si>
-    <t>(room.html 열림. Tutorial_grades=done) 자, 이렇게 한바퀴 투어가 완료되었어요!
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 카페는 여러분의 '보조선생님'이에요.
+숙제 체크와 관리, 시험 제작을 전부 편하게 맡겨보세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 사용법을 함께 알아볼까요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기는 카페 홀입니다.
+로그인을 하시고 나면 제일 처음 보이는 공간이에요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.tabs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.tab-content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 성공!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click:#receipt_icon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.receipt-box</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click:.cafe-table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#finalOrderBtn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click:#finalOrderBtn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click:.dish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click:#download-btn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click:#upload-btn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>done:tray</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#return-ham</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click:#return-ham</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#pendingList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>done:pendinglist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#hwSubmitbutton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>done:toserver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#choice1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#choice2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유롭게 메뉴를 탐험해보세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송이 끝나면 '오늘의 숙제점수'를 받으실 수 있습니다.
+눌러서 좀 더 자세히 확인해볼까요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#chalkboard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click:#chalkboard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘의 성적입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#chalkboard_grades</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.calendar-section</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#cafe_jigi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click:cafe_jigi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자, 이렇게 한바퀴 투어가 완료되었어요!
 어떠셨나요, 편리하게 활용이 되셨나요?</t>
-  </si>
-  <si>
-    <t>그렇다면 확인질문!</t>
-  </si>
-  <si>
-    <t>(minitest 열림) 숙제를 다운로드 받는 곳은 어디일까요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙제를 다운로드 받는 곳은 어디일까요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>정답입니다!
-이렇게 카페 내에서 할 수있는 미니 영어테스트와 퍼즐들도 '학습 모듈'로 활발하게 추가할 예정이에요. 기대해주세요!</t>
-  </si>
-  <si>
-    <t>아참참, 작성해주신 Prologue Question은 LTRYI 회원 등록 시 '평가서'로 받아보실 수 있습니다. 카페지기에게 받아주세요.
-다음 만남은 '당신에 대한 심층분석 보고서'으로 시작해보게 되겠네요.</t>
-  </si>
-  <si>
-    <t>#kiosk</t>
-  </si>
-  <si>
-    <t>#receipt_icon</t>
-  </si>
-  <si>
-    <t>#back-btn</t>
-  </si>
-  <si>
-    <t>#billboard</t>
-  </si>
-  <si>
-    <t>#submissionChart</t>
-  </si>
-  <si>
-    <t>#calendarTable</t>
-  </si>
-  <si>
-    <t>next</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#popup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>click:#kiosk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>.cafe-table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tooltip_xy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">반납함을 터치하면 완료한 숙제를 제출할 수 있습니다. </t>
-  </si>
-  <si>
-    <t>반납함입니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">완료된 숙제들이 대기하고 있습니다. '파일 선택'을 눌러서, 저장해놓은Prologue Question과 Level Test를 봉투에 넣어주세요. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">버튼을 누르면 완성한 숙제가 한꺼번에 전송됩니다! </t>
-  </si>
-  <si>
-    <t>이렇게 숙제 전송까지 완료되었어요!</t>
-  </si>
-  <si>
-    <t>전송된 숙제는 일꾼들이 수동으로 수집한 후 체크됩니다. 시간이 좀 걸릴거에요.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자, 그럼 이제 숙제가 도착하는 동안 카페를 좀 더 둘러볼까요! '뒤로가기' 버튼을 눌러, 카페 홀로 다시 돌아가봅시다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">이번엔 저에요! 카페지기를 눌러서 커스텀 주문을 해봅시다. </t>
-  </si>
-  <si>
-    <t>얼굴로 보네요, 반가워요. 이곳에서는 관리 업무를 좀 더 세밀하게 도와드리고 있어요.</t>
-  </si>
-  <si>
-    <t>highlight</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#popup-container</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>첫번째 메뉴에서는 당신의 현재 진척도를 체크하고, 추천 숙제를 받아보세요.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두번째 메뉴에서는 당신의 시험지와 채점 결과를 받아보실 수 있습니다. 요청은 키오스크로 주문 가능해요!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 성적 표시판입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>click:.go-back-from-grades</t>
-  </si>
-  <si>
-    <t>jigi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방문해주셔서 감사합니다, 내일도 또 와주세요!</t>
-  </si>
-  <si>
-    <t>그럼 튜토리얼은 여기까지에요. 즐거운 시간이셨는지 모르겠네요.</t>
+이렇게 카페 내에서 할 수있는 
+미니 영어테스트와 퍼즐들도 '학습 모듈'로 
+활발하게 추가할 예정이에요. 기대해주세요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 튜토리얼은 여기까지에요. 
+즐거운 시간이셨는지 모르겠네요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>done:order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay:700</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -481,6 +594,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -787,14 +901,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.9140625" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
     <col min="5" max="5" width="97.08203125" customWidth="1"/>
     <col min="6" max="6" width="29.25" customWidth="1"/>
@@ -823,7 +937,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -834,19 +948,20 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -854,16 +969,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -874,19 +989,19 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -894,16 +1009,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -914,16 +1029,16 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -934,16 +1049,16 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -954,16 +1069,16 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -974,16 +1089,16 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -994,16 +1109,16 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -1014,16 +1129,16 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -1034,16 +1149,16 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G12" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -1051,19 +1166,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>103</v>
+      </c>
+      <c r="F13" t="s">
+        <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -1074,16 +1189,16 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -1094,16 +1209,16 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -1114,16 +1229,16 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G16" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -1134,13 +1249,13 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -1151,16 +1266,16 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -1171,16 +1286,16 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -1191,13 +1306,13 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -1208,16 +1323,16 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G21" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -1225,13 +1340,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>95</v>
+        <v>82</v>
+      </c>
+      <c r="F22" t="s">
+        <v>113</v>
       </c>
       <c r="G22" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1239,13 +1357,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -1253,13 +1371,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
+      </c>
+      <c r="F24" t="s">
+        <v>115</v>
       </c>
       <c r="G24" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -1267,13 +1388,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
+      </c>
+      <c r="F25" t="s">
+        <v>117</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -1281,13 +1405,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -1295,13 +1419,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -1309,13 +1433,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -1323,13 +1447,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>102</v>
+        <v>89</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -1337,13 +1464,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G30" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -1351,16 +1478,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>106</v>
+        <v>93</v>
+      </c>
+      <c r="F31" t="s">
+        <v>119</v>
       </c>
       <c r="G31" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -1368,16 +1498,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>94</v>
+      </c>
+      <c r="F32" t="s">
+        <v>120</v>
       </c>
       <c r="G32" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -1385,16 +1518,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="G33" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -1402,19 +1535,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="34" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1422,13 +1552,16 @@
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" t="s">
-        <v>72</v>
+        <v>36</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" t="s">
+        <v>123</v>
       </c>
       <c r="G35" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -1436,19 +1569,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="G36" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -1459,13 +1589,16 @@
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>66</v>
+      </c>
+      <c r="F37" t="s">
+        <v>126</v>
       </c>
       <c r="G37" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
@@ -1476,13 +1609,16 @@
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>67</v>
+      </c>
+      <c r="F38" t="s">
+        <v>127</v>
       </c>
       <c r="G38" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
@@ -1490,19 +1626,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G39" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
@@ -1513,36 +1649,36 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G40" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="34" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" t="s">
-        <v>77</v>
+        <v>42</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="G41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="34" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1550,19 +1686,16 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" t="s">
-        <v>78</v>
-      </c>
-      <c r="F42" t="s">
-        <v>85</v>
+        <v>43</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="G42" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
@@ -1573,19 +1706,16 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>79</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="G43" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
@@ -1593,22 +1723,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="G44" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="68" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1616,19 +1746,19 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>47</v>
-      </c>
-      <c r="E45" t="s">
-        <v>81</v>
+        <v>46</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="F45" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G45" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
@@ -1639,22 +1769,22 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F46" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="34" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1662,16 +1792,16 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="G47" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
@@ -1682,10 +1812,13 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E48" t="s">
-        <v>111</v>
+        <v>96</v>
+      </c>
+      <c r="G48" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/tutorial/tutorial_steps_full_complete.xlsx
+++ b/tutorial/tutorial_steps_full_complete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\Documents\My Lab\4_My Factory\CodingNDeveloping\웹코딩\Ltryi_Frontend_moved\LTsRYI\tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345C9C87-A3DF-4662-8EC3-178DE51EC93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE95E575-19BE-448B-9D05-480D9A36C5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="1440" windowWidth="14880" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="164">
   <si>
     <t>step</t>
   </si>
@@ -173,330 +173,538 @@
 LTRYI를 찾아주셔서 감사합니다.</t>
   </si>
   <si>
-    <t>그럼 우선 주문을 위해, 키오스크로 가볼까요?</t>
-  </si>
-  <si>
-    <t>(키오스크 조명) 키오스크로는 ‘오늘 할 일’을 주문할 수 있습니다.
+    <t>담기가 끝나시면 주문하기 버튼을 눌러주세요.</t>
+  </si>
+  <si>
+    <t>카페 테이블이에요.</t>
+  </si>
+  <si>
+    <t>#kiosk</t>
+  </si>
+  <si>
+    <t>#receipt_icon</t>
+  </si>
+  <si>
+    <t>#submissionChart</t>
+  </si>
+  <si>
+    <t>#calendarTable</t>
+  </si>
+  <si>
+    <t>next</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#popup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click:#kiosk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.cafe-table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반납함입니다.</t>
+  </si>
+  <si>
+    <t>이렇게 숙제 전송까지 완료되었어요!</t>
+  </si>
+  <si>
+    <t>highlight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#popup-container</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jigi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문해주셔서 감사합니다, 내일도 또 와주세요!</t>
+  </si>
+  <si>
+    <t>.tabs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.tab-content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 성공!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.receipt-box</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click:.cafe-table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#finalOrderBtn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click:#finalOrderBtn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click:.dish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click:#download-btn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click:#upload-btn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>done:tray</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#return-ham</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click:#return-ham</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#pendingList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>done:pendinglist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#hwSubmitbutton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>done:toserver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#choice1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#choice2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#chalkboard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click:#chalkboard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#chalkboard_grades</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.calendar-section</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#cafe_jigi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click:cafe_jigi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙제를 다운로드 받는 곳은 어디일까요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 튜토리얼은 여기까지에요. 
+즐거운 시간이셨는지 모르겠네요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>done:order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay:700</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tooltip_xyhw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>555_15_350_100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>키오스크로는 ‘오늘 할 일’을 주문할 수 있습니다.
 터치해서 키오스크 화면을 열어보세요.</t>
-  </si>
-  <si>
-    <t>(팝업만 조명) 키오스크 화면입니다.</t>
-  </si>
-  <si>
-    <t>(탭만 조명) 여러분은 숙제를 받거나, 내 숙제를 제출할 수 있어요.</t>
-  </si>
-  <si>
-    <t>(메뉴 버튼 영역) 딱 맞는 숙제를 고르실 수 있도록, 미리 준비되어 있답니다.</t>
-  </si>
-  <si>
-    <t>(다시 팝업만 조명) 지금은우선 Level Test와 Prologue question을 찾아서 카트에 담아보세요.</t>
-  </si>
-  <si>
-    <t>담기가 끝나시면 주문하기 버튼을 눌러주세요.</t>
-  </si>
-  <si>
-    <t>하단의 '영수증’ 아이콘을 통해 언제든지 주문 내역을 확인할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>그럼 이제 받은 숙제를 열어보러, 테이블로 가볼까요?</t>
-  </si>
-  <si>
-    <t>카페 테이블이에요.</t>
-  </si>
-  <si>
-    <t>주문한 숙제는 자동으로 테이블에 차려집니다.
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>키오스크 화면입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>310_160_200_120</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러분은 숙제를 받거나, 
+내 숙제를 제출할 수 있어요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180_50_270_80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>딱 맞는 숙제를 고르실 수 있도록, 미리 준비되어 있답니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>360_55_270_80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>560_125_230_90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>420_150_200_80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오케이!
+그럼 이제 받은 숙제를 열어보러, 
+테이블로 가볼까요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>280_40_240_90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문한 숙제는 
+자동으로 테이블에 차려집니다.
 각 Dish를 누르면 다운로드가 준비돼요.</t>
-  </si>
-  <si>
-    <t>우선 다운로드 버튼을 눌러서, 연결 앱을 통해 Prologue Question을 작성해보세요!</t>
-  </si>
-  <si>
-    <t>작성을 끝내셨다면, ‘완료했어요’ 버튼을 눌러서 숙제를 임시 저장해보세요.</t>
-  </si>
-  <si>
-    <t>이번엔 같은 방법으로, Level Test도 해볼까요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>380_100_280_110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>300_80_280_90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>310_155_200_90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙제 하나 완료!
+Level Test도 똑같이 
+완료해볼까요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>310_155_160_90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>오늘의 숙제 모두 완료!
 이제 완료한 숙제를 선생님에게 보내볼까요?
-'뒤로가기'버튼을 눌러, 카페 홀로 돌아가봅시다.</t>
-  </si>
-  <si>
-    <t>그럼, 전송이 완료된 것 같으니 다시 카페 홀로 나가볼까요!</t>
-  </si>
-  <si>
-    <t>(칠판 부분 조명) 칠판에서는 오늘의 점수와, 누적 추이를 확인할 수 있어요.
-숙제량, 제출시간, 과목이 전부 점수로 환산됩니다.</t>
-  </si>
-  <si>
-    <t>(달력 부분 조명) 달력에서는 얼마나 성실하게 숙제를 완료했는 지 표시됩니다.</t>
-  </si>
-  <si>
-    <t>(브라우저로 late 알림 보냄) 헉, 이게 무슨 소리일까요!</t>
-  </si>
-  <si>
-    <t>아이고, 경보기가 잘못 작동한 모양이네요..</t>
+아래 버튼을 눌러, 카페 홀로 돌아가봅시다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>520_80_270_110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">반납을 위한 포장대입니다. 
+'파일 선택'을 눌러서, 완료한 숙제를 
+전송봉투에 각각 넣어주세요. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송된 숙제는 일꾼들이 손으로 체크합니다. 
+시간이 좀 걸릴거에요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">자, 그럼 이제 숙제가 도착하는 동안 
+카페를 좀 더 둘러볼까요! 
+아래 버튼을 눌러, 카페 홀로 다시 돌아가봅시다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이번엔 저에요! 
+카페지기를 눌러서 
+커스텀 주문을 해봅시다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>240_130_200_90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴로 보네요, 반가워요!! 
+이곳에서는 숙제 관리를 좀 더 
+세밀하게 도와드리고 있어요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>290_10_270_100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">첫번째 메뉴에서는 
+당신의 현재 진척도를 체크하고, 
+추천 숙제를 받아보세요. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>470_80_250_110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">두번째 메뉴에서는 
+개인맞춤 시험지와 채점 결과를 받아보실 수 있습니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510_80_250_110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>560_120_220_70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>230_70_280_110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>350_10_340_140</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>칠판에서는 
+오늘의 점수와, 누적 점수를 보여줍니다.
+숙제량, 제출시간, 과목이 
+전부 점수로 계산됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>달력에서는 
+얼마나 성실하게 숙제를 완료했는 지 
+표시됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>250_110_250_110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어얽 깜짝이야. 무슨 소리래요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이고, 
+경보기가 잘못 작동한 모양이네요..</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>190_50_280_250</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자…
+이렇게 한바퀴 투어가 완료되었어요!
+어떠셨나요, 쓸만하셨나요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>그렇다면 확인질문!</t>
-  </si>
-  <si>
-    <t>아참참, 작성해주신 Prologue Question은 LTRYI 회원 등록 시 '평가서'로 받아보실 수 있습니다. 카페지기에게 받아주세요.
-다음 만남은 '당신에 대한 심층분석 보고서'으로 시작해보게 되겠네요.</t>
-  </si>
-  <si>
-    <t>#kiosk</t>
-  </si>
-  <si>
-    <t>#receipt_icon</t>
-  </si>
-  <si>
-    <t>#submissionChart</t>
-  </si>
-  <si>
-    <t>#calendarTable</t>
-  </si>
-  <si>
-    <t>next</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#popup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>click:#kiosk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>.cafe-table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tooltip_xy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">반납함을 터치하면 완료한 숙제를 제출할 수 있습니다. </t>
-  </si>
-  <si>
-    <t>반납함입니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">완료된 숙제들이 대기하고 있습니다. '파일 선택'을 눌러서, 저장해놓은Prologue Question과 Level Test를 봉투에 넣어주세요. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">버튼을 누르면 완성한 숙제가 한꺼번에 전송됩니다! </t>
-  </si>
-  <si>
-    <t>이렇게 숙제 전송까지 완료되었어요!</t>
-  </si>
-  <si>
-    <t>전송된 숙제는 일꾼들이 수동으로 수집한 후 체크됩니다. 시간이 좀 걸릴거에요.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자, 그럼 이제 숙제가 도착하는 동안 카페를 좀 더 둘러볼까요! '뒤로가기' 버튼을 눌러, 카페 홀로 다시 돌아가봅시다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">이번엔 저에요! 카페지기를 눌러서 커스텀 주문을 해봅시다. </t>
-  </si>
-  <si>
-    <t>얼굴로 보네요, 반가워요. 이곳에서는 관리 업무를 좀 더 세밀하게 도와드리고 있어요.</t>
-  </si>
-  <si>
-    <t>highlight</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#popup-container</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>첫번째 메뉴에서는 당신의 현재 진척도를 체크하고, 추천 숙제를 받아보세요.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두번째 메뉴에서는 당신의 시험지와 채점 결과를 받아보실 수 있습니다. 요청은 키오스크로 주문 가능해요!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jigi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방문해주셔서 감사합니다, 내일도 또 와주세요!</t>
-  </si>
-  <si>
-    <t>오늘 분의 숙제가 제출되지 않는 경우, 이렇게 알림을 통해 연락이 가게됩니다.
-단계별로 더 강력한 연락이 가게되니 꼭 숙제는 그날 제출해주세요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정답입니다!
+이렇게 
+카페 내에서 바로 풀 수있는 시험지 등
+활발하게 upgrade될거에요. 
+기대해주세요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">반납함을 터치하면 
+완료한 숙제를 
+제출할 수 있습니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>330_80_160_90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송 버튼을 누르면 
+봉투가 한꺼번에 전송됩니다! (약 15초)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">자유롭게 
+아래 메뉴를 눌러보세요.                 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 사이, 전송이 완료됐대요! 
+다시 카페 홀로 나가볼까요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>290_10_180_70</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>이 카페는 여러분의 '보조선생님'이에요.
-숙제 체크와 관리, 시험 제작을 전부 편하게 맡겨보세요.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘은 사용법을 함께 알아볼까요!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여기는 카페 홀입니다.
-로그인을 하시고 나면 제일 처음 보이는 공간이에요.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>.tabs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>.tab-content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 성공!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>click:#receipt_icon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>.receipt-box</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>click:.cafe-table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#finalOrderBtn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>click:#finalOrderBtn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>click:.dish</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>click:#download-btn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>click:#upload-btn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>done:tray</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#return-ham</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>click:#return-ham</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#pendingList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>done:pendinglist</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#hwSubmitbutton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>done:toserver</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#choice1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#choice2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자유롭게 메뉴를 탐험해보세요.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전송이 끝나면 '오늘의 숙제점수'를 받으실 수 있습니다.
+- 숙제 체크
+- 관리, 분석
+- 시험 제작 
+을 전부 편하게 맡겨보세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 사용법을 배워봅시다!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>190_50_270_70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>450 _100_280_100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay:4000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>'오늘의 숙제점수'에요!
+숙제가 전송되면 점수가 매겨집니다.
 눌러서 좀 더 자세히 확인해볼까요?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#chalkboard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>click:#chalkboard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘의 성적입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#chalkboard_grades</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>.calendar-section</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#cafe_jigi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>click:cafe_jigi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>event</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자, 이렇게 한바퀴 투어가 완료되었어요!
-어떠셨나요, 편리하게 활용이 되셨나요?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙제를 다운로드 받는 곳은 어디일까요?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정답입니다!
-이렇게 카페 내에서 할 수있는 
-미니 영어테스트와 퍼즐들도 '학습 모듈'로 
-활발하게 추가할 예정이에요. 기대해주세요!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그럼 튜토리얼은 여기까지에요. 
-즐거운 시간이셨는지 모르겠네요.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>done:order</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>delay:700</t>
+    <t xml:space="preserve">
+     오늘의 성적입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>260_90_200_130</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+오늘 분의 숙제가 제출되지 않는 경우, 
+이렇게 알림을 통해 연락이 가게됩니다.
+단계별로 더 강력한 연락이 가게되니 
+꼭 숙제는 그날 제출해주세요!
+                                             </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아참참, 
+- Level Test와 
+- Prologue Question은 
+LTRYI 회원으로 등록하시면 
+'심층분석보고서'로 돌려드려요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">카페에서 주문은 역시?
+당연히 키오스크죠! 가볼까요?
+                                                                 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">여기는 카페 홀입니다.
+로그인을 하시고 나면 제일 처음 보이는 공간이에요.
+                                                                 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level Test와 
+Prologue question을 찾아서 
+카트에 담아보세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">하단의 '영수증’ 아이콘을 통해 
+언제든지 주문 내역을 확인할 수 있습니다.                          </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay:500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다운로드 버튼을 누르고, 
+연결 앱을 통해 
+숙제를 열어봅시다!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">작성을 다 끝내셨다면, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⬆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+‘완료했어요’ 버튼을 눌러서 
+완료 표시를 해보세요!</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +712,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,6 +742,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -582,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -595,6 +809,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -901,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="94" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -912,6 +1133,8 @@
     <col min="4" max="4" width="18.75" customWidth="1"/>
     <col min="5" max="5" width="97.08203125" customWidth="1"/>
     <col min="6" max="6" width="29.25" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
@@ -937,7 +1160,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -957,11 +1180,11 @@
         <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="119" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -975,10 +1198,10 @@
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -995,13 +1218,13 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1015,13 +1238,16 @@
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1034,14 +1260,17 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>50</v>
+      <c r="E6" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1051,14 +1280,17 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
-        <v>51</v>
+      <c r="E7" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>59</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -1072,16 +1304,16 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1091,14 +1323,17 @@
       <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" t="s">
-        <v>53</v>
+      <c r="E9" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>56</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -1112,16 +1347,19 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1131,14 +1369,17 @@
       <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" t="s">
-        <v>55</v>
+      <c r="E11" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>135</v>
+        <v>95</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -1152,13 +1393,16 @@
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="G12" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -1166,22 +1410,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1191,17 +1435,20 @@
       <c r="D14" t="s">
         <v>24</v>
       </c>
-      <c r="E14" t="s">
-        <v>57</v>
+      <c r="E14" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1211,14 +1458,17 @@
       <c r="D15" t="s">
         <v>25</v>
       </c>
-      <c r="E15" t="s">
-        <v>58</v>
+      <c r="E15" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>106</v>
+        <v>71</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -1226,7 +1476,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -1235,13 +1485,13 @@
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="68" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1251,14 +1501,17 @@
       <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="E17" t="s">
-        <v>60</v>
+      <c r="E17" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="G17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="51" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1268,17 +1521,20 @@
       <c r="D18" t="s">
         <v>28</v>
       </c>
-      <c r="E18" t="s">
-        <v>61</v>
+      <c r="E18" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1288,17 +1544,20 @@
       <c r="D19" t="s">
         <v>29</v>
       </c>
-      <c r="E19" t="s">
-        <v>62</v>
+      <c r="E19" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="G19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="51" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1308,14 +1567,17 @@
       <c r="D20" t="s">
         <v>30</v>
       </c>
-      <c r="E20" t="s">
-        <v>63</v>
+      <c r="E20" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="G20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="68" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1328,223 +1590,250 @@
       <c r="D21" t="s">
         <v>31</v>
       </c>
-      <c r="E21" t="s">
-        <v>64</v>
+      <c r="E21" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="G21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="51" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>82</v>
+        <v>63</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="F22" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="68" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>84</v>
+        <v>63</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="F24" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>85</v>
+        <v>63</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="F25" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="G26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="G27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="68" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>88</v>
+        <v>57</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="G28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="51" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" t="s">
-        <v>128</v>
-      </c>
-      <c r="G29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H29" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="51" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>90</v>
+        <v>63</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="G30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="51" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
         <v>32</v>
       </c>
-      <c r="E31" t="s">
-        <v>93</v>
+      <c r="E31" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="F31" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
         <v>33</v>
       </c>
-      <c r="E32" t="s">
-        <v>94</v>
+      <c r="E32" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="F32" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
         <v>34</v>
       </c>
-      <c r="E33" t="s">
-        <v>121</v>
+      <c r="E33" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="G33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+        <v>151</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="D34" t="s">
         <v>35</v>
       </c>
-      <c r="E34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="34" x14ac:dyDescent="0.45">
+      <c r="E34" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="68" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1554,34 +1843,40 @@
       <c r="D35" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>122</v>
+      <c r="E35" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="F35" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="51" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
         <v>37</v>
       </c>
-      <c r="E36" t="s">
-        <v>125</v>
+      <c r="E36" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="G36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="85" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1591,17 +1886,20 @@
       <c r="D37" t="s">
         <v>38</v>
       </c>
-      <c r="E37" t="s">
-        <v>66</v>
+      <c r="E37" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="F37" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="51" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1611,22 +1909,25 @@
       <c r="D38" t="s">
         <v>39</v>
       </c>
-      <c r="E38" t="s">
-        <v>67</v>
+      <c r="E38" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="F38" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -1635,13 +1936,13 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="G39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1654,31 +1955,34 @@
       <c r="D40" t="s">
         <v>41</v>
       </c>
-      <c r="E40" t="s">
-        <v>69</v>
+      <c r="E40" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="G40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="34" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="153" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="D41" t="s">
         <v>42</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="G41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="34" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="68" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1692,13 +1996,13 @@
         <v>43</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1712,13 +2016,13 @@
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="G43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1732,13 +2036,13 @@
         <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="G44" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="68" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="119" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1752,16 +2056,16 @@
         <v>46</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F45" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="G45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="119" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1774,17 +2078,17 @@
       <c r="D46" t="s">
         <v>47</v>
       </c>
-      <c r="E46" t="s">
-        <v>71</v>
+      <c r="E46" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="F46" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="34" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1798,13 +2102,13 @@
         <v>48</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="G47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1812,13 +2116,13 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="E48" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="G48" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/tutorial/tutorial_steps_full_complete.xlsx
+++ b/tutorial/tutorial_steps_full_complete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\Documents\My Lab\4_My Factory\CodingNDeveloping\웹코딩\Ltryi_Frontend_moved\LTsRYI\tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE95E575-19BE-448B-9D05-480D9A36C5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050F7D4B-DA17-4537-BA9F-49366C333A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1440" windowWidth="14880" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39345" yWindow="8130" windowWidth="14880" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -214,9 +214,6 @@
     <t>반납함입니다.</t>
   </si>
   <si>
-    <t>이렇게 숙제 전송까지 완료되었어요!</t>
-  </si>
-  <si>
     <t>highlight</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -419,14 +416,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>300_80_280_90</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>310_155_200_90</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>숙제 하나 완료!
 Level Test도 똑같이 
 완료해볼까요?</t>
@@ -481,12 +470,6 @@
   </si>
   <si>
     <t>290_10_270_100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">첫번째 메뉴에서는 
-당신의 현재 진척도를 체크하고, 
-추천 숙제를 받아보세요. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -580,11 +563,6 @@
   <si>
     <t xml:space="preserve">자유롭게 
 아래 메뉴를 눌러보세요.                 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그 사이, 전송이 완료됐대요! 
-다시 카페 홀로 나가볼까요!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -681,8 +659,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>480_50_200_90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">작성을 다 끝내셨다면, </t>
+      <t xml:space="preserve">작성을 다 끝내셨다면,
+‘완료했어요’ 버튼을 눌러서 
+완료 표시를 해보세요! </t>
     </r>
     <r>
       <rPr>
@@ -691,20 +675,28 @@
         <rFont val="Segoe UI Symbol"/>
         <family val="2"/>
       </rPr>
-      <t>⬆</t>
+      <t>⬇</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-‘완료했어요’ 버튼을 눌러서 
-완료 표시를 해보세요!</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>360_155_200_90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송도 끄읕!
+이렇게 숙제 전송까지 완료되었어요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">첫번째 메뉴에서는 
+당신의 현재 진도를 체크하고, 
+추천 숙제를 받아보세요. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아참, 전송은 완료됐대요. 
+둘러보시다가, 점수 보러!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1122,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="94" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="C29" zoomScale="94" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1160,7 +1152,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -1198,7 +1190,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G3" t="s">
         <v>56</v>
@@ -1218,7 +1210,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G4" t="s">
         <v>56</v>
@@ -1238,13 +1230,13 @@
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G5" t="s">
         <v>56</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.45">
@@ -1261,13 +1253,13 @@
         <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G6" t="s">
         <v>56</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.45">
@@ -1281,7 +1273,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1290,7 +1282,7 @@
         <v>59</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -1304,13 +1296,13 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.45">
@@ -1324,16 +1316,16 @@
         <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="F9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -1347,16 +1339,16 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="F10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.45">
@@ -1370,16 +1362,16 @@
         <v>21</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F11" t="s">
         <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -1396,13 +1388,13 @@
         <v>50</v>
       </c>
       <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
         <v>72</v>
       </c>
-      <c r="G12" t="s">
-        <v>73</v>
-      </c>
       <c r="H12" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -1410,19 +1402,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
       </c>
       <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
         <v>69</v>
       </c>
-      <c r="F13" t="s">
-        <v>70</v>
-      </c>
       <c r="G13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.45">
@@ -1436,7 +1428,7 @@
         <v>24</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F14" t="s">
         <v>53</v>
@@ -1445,7 +1437,7 @@
         <v>56</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.45">
@@ -1459,16 +1451,16 @@
         <v>25</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F15" t="s">
         <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -1476,7 +1468,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -1488,7 +1480,7 @@
         <v>51</v>
       </c>
       <c r="G16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="68" x14ac:dyDescent="0.45">
@@ -1502,13 +1494,13 @@
         <v>27</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="G17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="51" x14ac:dyDescent="0.45">
@@ -1522,16 +1514,16 @@
         <v>28</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.45">
@@ -1545,16 +1537,16 @@
         <v>29</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="51" x14ac:dyDescent="0.45">
@@ -1568,13 +1560,13 @@
         <v>30</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="68" x14ac:dyDescent="0.45">
@@ -1591,7 +1583,7 @@
         <v>31</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G21" t="s">
         <v>56</v>
@@ -1602,19 +1594,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" t="s">
         <v>78</v>
       </c>
-      <c r="G22" t="s">
-        <v>79</v>
-      </c>
       <c r="H22" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
@@ -1622,7 +1614,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>61</v>
@@ -1636,19 +1628,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" t="s">
         <v>80</v>
       </c>
-      <c r="G24" t="s">
-        <v>81</v>
-      </c>
       <c r="H24" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="34" x14ac:dyDescent="0.45">
@@ -1656,30 +1648,30 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" t="s">
         <v>82</v>
       </c>
-      <c r="G25" t="s">
-        <v>83</v>
-      </c>
       <c r="H25" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="51" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>62</v>
+      <c r="E26" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="G26" t="s">
         <v>56</v>
@@ -1693,7 +1685,7 @@
         <v>57</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G27" t="s">
         <v>56</v>
@@ -1707,7 +1699,7 @@
         <v>57</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G28" t="s">
         <v>56</v>
@@ -1718,19 +1710,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" t="s">
         <v>90</v>
       </c>
-      <c r="G29" t="s">
-        <v>91</v>
-      </c>
       <c r="H29" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="51" x14ac:dyDescent="0.45">
@@ -1738,16 +1730,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G30" t="s">
         <v>56</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="51" x14ac:dyDescent="0.45">
@@ -1755,22 +1747,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
         <v>32</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G31" t="s">
         <v>56</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.45">
@@ -1778,22 +1770,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
         <v>33</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s">
         <v>56</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="34" x14ac:dyDescent="0.45">
@@ -1801,19 +1793,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G33" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="34" x14ac:dyDescent="0.45">
@@ -1821,16 +1813,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D34" t="s">
         <v>35</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="68" x14ac:dyDescent="0.45">
@@ -1844,16 +1836,16 @@
         <v>36</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" t="s">
         <v>86</v>
       </c>
-      <c r="G35" t="s">
-        <v>87</v>
-      </c>
       <c r="H35" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="51" x14ac:dyDescent="0.45">
@@ -1861,19 +1853,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D36" t="s">
         <v>37</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="85" x14ac:dyDescent="0.45">
@@ -1887,16 +1879,16 @@
         <v>38</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s">
         <v>56</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="51" x14ac:dyDescent="0.45">
@@ -1910,16 +1902,16 @@
         <v>39</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s">
         <v>56</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
@@ -1927,7 +1919,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -1936,7 +1928,7 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G39" t="s">
         <v>56</v>
@@ -1956,7 +1948,7 @@
         <v>41</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G40" t="s">
         <v>56</v>
@@ -1967,19 +1959,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D41" t="s">
         <v>42</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G41" t="s">
         <v>56</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="68" x14ac:dyDescent="0.45">
@@ -1996,7 +1988,7 @@
         <v>43</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G42" t="s">
         <v>56</v>
@@ -2016,7 +2008,7 @@
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G43" t="s">
         <v>56</v>
@@ -2036,7 +2028,7 @@
         <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G44" t="s">
         <v>56</v>
@@ -2056,7 +2048,7 @@
         <v>46</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F45" t="s">
         <v>54</v>
@@ -2079,7 +2071,7 @@
         <v>47</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F46" t="s">
         <v>55</v>
@@ -2102,7 +2094,7 @@
         <v>48</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G47" t="s">
         <v>56</v>
@@ -2116,10 +2108,10 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" t="s">
         <v>65</v>
-      </c>
-      <c r="E48" t="s">
-        <v>66</v>
       </c>
       <c r="G48" t="s">
         <v>56</v>
